--- a/UserAcceptance-Groep02.xlsx
+++ b/UserAcceptance-Groep02.xlsx
@@ -5,26 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/r0300338_student_thomasmore_be/Documents/Stijn/Schooljaar 24-25/Connecting And Securing Networks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/r0300338_student_thomasmore_be/Documents/Stijn/Schooljaar 24-25/Connecting And Securing Networks/CaSN_Groepswerk_Groep02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{43D8EBC1-6EE5-4742-8795-6CB5B7112DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF31169-EE4B-4E50-959C-64A8C1DF2B46}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{43D8EBC1-6EE5-4742-8795-6CB5B7112DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D559921B-784F-41CE-937C-D61F28A01239}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="2" r:id="rId1"/>
+    <sheet name="Testplan Fase02" sheetId="2" r:id="rId1"/>
+    <sheet name="Testplan Fase03" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Test Plan'!$A$1:$I$93</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Test Plan'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Testplan Fase02'!$A$1:$I$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Testplan Fase03'!$A$1:$I$93</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Testplan Fase02'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Testplan Fase03'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="140">
   <si>
     <t>DD/MM/YYYY</t>
   </si>
@@ -302,9 +305,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Investigate why this route is missing</t>
-  </si>
-  <si>
     <t>Check R-CHI-1 link health</t>
   </si>
   <si>
@@ -378,6 +378,75 @@
   </si>
   <si>
     <t>route naar 10.0.7.1 via S0/0/1</t>
+  </si>
+  <si>
+    <t>etherchannel protocol</t>
+  </si>
+  <si>
+    <t>protocol has to be the same on both switches</t>
+  </si>
+  <si>
+    <t>Trunkin protocol</t>
+  </si>
+  <si>
+    <t>port channel must be trunking on both sides</t>
+  </si>
+  <si>
+    <t>HSRP</t>
+  </si>
+  <si>
+    <t>"show standby brief" on both L3S</t>
+  </si>
+  <si>
+    <t>"show interfaces trunk" on both L3S</t>
+  </si>
+  <si>
+    <t>"Show etherchannel summary" on both L3S</t>
+  </si>
+  <si>
+    <t>1 active and 1 standby router</t>
+  </si>
+  <si>
+    <t>shutdown active L3S and "show standby brief" on other switch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Spanning Tree</t>
+  </si>
+  <si>
+    <t>"Show spanning-tree "vlanID"</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>ping from PC1-bru to 10.1.0.1, 10.0.2.1, 10.1.3.1, 10.1.3.129</t>
+  </si>
+  <si>
+    <t>ping from PC2-bru to 10.1.0.1, 10.0.2.1, 10.1.3.1, 10.1.3.129</t>
+  </si>
+  <si>
+    <t>ping 100%</t>
+  </si>
+  <si>
+    <t>ping dhcp server 10.1.3.132</t>
+  </si>
+  <si>
+    <t>ping zabbix server 10.1.3.129</t>
+  </si>
+  <si>
+    <t>L3S1</t>
+  </si>
+  <si>
+    <t>L3S2</t>
+  </si>
+  <si>
+    <t>ip route to each network</t>
   </si>
 </sst>
 </file>
@@ -584,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,10 +712,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +748,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,23 +775,14 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1008,9 +1092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
@@ -1027,76 +1111,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>90</v>
@@ -1115,15 +1199,15 @@
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
+      <c r="E6" s="3">
+        <v>45558</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>91</v>
@@ -1136,15 +1220,15 @@
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>45558</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>91</v>
@@ -1157,17 +1241,17 @@
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>111</v>
+      <c r="B8" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45558</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>91</v>
@@ -1180,11 +1264,11 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>45558</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>91</v>
@@ -1197,30 +1281,28 @@
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>45558</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
@@ -1235,8 +1317,8 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>93</v>
+      <c r="B12" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1252,7 +1334,7 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -1267,15 +1349,15 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>45558</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>91</v>
@@ -1288,15 +1370,15 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>45558</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>91</v>
@@ -1309,7 +1391,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
@@ -1324,7 +1406,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
@@ -1339,15 +1421,15 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>45558</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>91</v>
@@ -1360,17 +1442,17 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>94</v>
+      <c r="B19" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45558</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>91</v>
@@ -1383,7 +1465,7 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
@@ -1398,12 +1480,12 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>0</v>
@@ -1417,12 +1499,12 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>0</v>
@@ -1436,7 +1518,7 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
@@ -1451,15 +1533,15 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45558</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>91</v>
@@ -1472,15 +1554,15 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45558</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>91</v>
@@ -1490,41 +1572,41 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>0</v>
@@ -1539,13 +1621,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>0</v>
@@ -1601,28 +1683,28 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="13" t="s">
@@ -1700,28 +1782,28 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="13" t="s">
@@ -1799,34 +1881,34 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
@@ -1841,7 +1923,7 @@
       <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -1856,7 +1938,7 @@
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
@@ -1871,7 +1953,7 @@
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3" t="s">
@@ -1886,7 +1968,7 @@
       <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="32"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3" t="s">
@@ -1901,7 +1983,7 @@
       <c r="A54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="32"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
@@ -1916,7 +1998,7 @@
       <c r="A55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3" t="s">
@@ -1931,7 +2013,7 @@
       <c r="A56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="3" t="s">
@@ -1946,7 +2028,7 @@
       <c r="A57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
@@ -1961,7 +2043,7 @@
       <c r="A58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="3" t="s">
@@ -1976,7 +2058,7 @@
       <c r="A59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="3" t="s">
@@ -1991,7 +2073,7 @@
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="3" t="s">
@@ -2006,7 +2088,7 @@
       <c r="A61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3" t="s">
@@ -2021,7 +2103,7 @@
       <c r="A62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="3" t="s">
@@ -2036,7 +2118,7 @@
       <c r="A63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="3" t="s">
@@ -2051,7 +2133,7 @@
       <c r="A64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3" t="s">
@@ -2066,7 +2148,7 @@
       <c r="A65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="3" t="s">
@@ -2081,7 +2163,7 @@
       <c r="A66" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="3" t="s">
@@ -2096,7 +2178,7 @@
       <c r="A67" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="3" t="s">
@@ -2108,34 +2190,34 @@
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="24"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="27"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
@@ -2150,7 +2232,7 @@
       <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="29"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
@@ -2165,7 +2247,7 @@
       <c r="A72" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="3" t="s">
@@ -2180,7 +2262,7 @@
       <c r="A73" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="3" t="s">
@@ -2195,7 +2277,7 @@
       <c r="A74" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="3" t="s">
@@ -2210,7 +2292,7 @@
       <c r="A75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="3" t="s">
@@ -2225,7 +2307,7 @@
       <c r="A76" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
@@ -2240,7 +2322,7 @@
       <c r="A77" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="28"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
@@ -2255,7 +2337,7 @@
       <c r="A78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="30"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
@@ -2270,7 +2352,7 @@
       <c r="A79" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="31"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
@@ -2285,7 +2367,7 @@
       <c r="A80" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="3" t="s">
@@ -2300,7 +2382,7 @@
       <c r="A81" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="3" t="s">
@@ -2315,7 +2397,7 @@
       <c r="A82" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="3" t="s">
@@ -2330,7 +2412,7 @@
       <c r="A83" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="3" t="s">
@@ -2345,7 +2427,7 @@
       <c r="A84" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
@@ -2360,7 +2442,7 @@
       <c r="A85" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
@@ -2375,7 +2457,7 @@
       <c r="A86" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
@@ -2390,7 +2472,7 @@
       <c r="A87" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
@@ -2405,7 +2487,7 @@
       <c r="A88" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="3" t="s">
@@ -2417,34 +2499,34 @@
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="24"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="27"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="10">
         <v>7.1</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="3" t="s">
@@ -2459,7 +2541,7 @@
       <c r="A92" s="10">
         <v>7.2</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="3" t="s">
@@ -2474,7 +2556,7 @@
       <c r="A93" s="10">
         <v>7.3</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="3" t="s">
@@ -2487,6 +2569,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A33:I34"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A89:I90"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B49:B55"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B84:B88"/>
     <mergeCell ref="B80:B81"/>
@@ -2503,21 +2600,1488 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B18"/>
+  </mergeCells>
+  <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;R&amp;"Tahoma,Regular"&amp;8Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94B9E72-32E0-4EE3-9BEF-688339C6FA8D}">
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="52.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5703125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1">
+      <c r="A1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1">
+      <c r="A3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1">
+      <c r="A26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" s="8" customFormat="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1">
+      <c r="A28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" s="8" customFormat="1">
+      <c r="A29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1">
+      <c r="A30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1">
+      <c r="A31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1">
+      <c r="A33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" s="8" customFormat="1">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1">
+      <c r="A36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" s="8" customFormat="1">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" s="8" customFormat="1">
+      <c r="A38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" s="8" customFormat="1">
+      <c r="A39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" s="8" customFormat="1">
+      <c r="A40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" s="8" customFormat="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1">
+      <c r="A42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" s="8" customFormat="1">
+      <c r="A43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" s="8" customFormat="1">
+      <c r="A44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" s="8" customFormat="1">
+      <c r="A45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1">
+      <c r="A46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="28"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="38"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="29"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
     <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="A89:I90"/>
+    <mergeCell ref="B49:B55"/>
     <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
     <mergeCell ref="A26:I27"/>
     <mergeCell ref="A33:I34"/>
     <mergeCell ref="A40:I41"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A89:I90"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
@@ -2528,21 +4092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FBC445AECEC6C44AC6D043F7E24ABC5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce1db7bd6ce67f5356797b83d108a26c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -2656,10 +4205,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E4E5FE-D3FE-4129-B6D2-82E023BC4B50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEEFAD0-BFA4-433F-A51E-6B605D7C9FEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2680,17 +4252,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEEFAD0-BFA4-433F-A51E-6B605D7C9FEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E4E5FE-D3FE-4129-B6D2-82E023BC4B50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/UserAcceptance-Groep02.xlsx
+++ b/UserAcceptance-Groep02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/r0300338_student_thomasmore_be/Documents/Stijn/Schooljaar 24-25/Connecting And Securing Networks/CaSN_Groepswerk_Groep02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{43D8EBC1-6EE5-4742-8795-6CB5B7112DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D559921B-784F-41CE-937C-D61F28A01239}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639771C-87EF-4B20-9769-492BEDA2F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testplan Fase02" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
   <si>
     <t>DD/MM/YYYY</t>
   </si>
@@ -407,12 +407,6 @@
     <t>1 active and 1 standby router</t>
   </si>
   <si>
-    <t>shutdown active L3S and "show standby brief" on other switch</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Spanning Tree</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>ping from PC2-bru to 10.1.0.1, 10.0.2.1, 10.1.3.1, 10.1.3.129</t>
   </si>
   <si>
-    <t>ping 100%</t>
-  </si>
-  <si>
     <t>ping dhcp server 10.1.3.132</t>
   </si>
   <si>
@@ -447,6 +438,27 @@
   </si>
   <si>
     <t>ip route to each network</t>
+  </si>
+  <si>
+    <t>Ping PC1-BRU to default gateway, active L3S uitschakelen</t>
+  </si>
+  <si>
+    <t>Ping PC1-BRU to PC2-BRU</t>
+  </si>
+  <si>
+    <t>shutdown active L3S1 and "show standby brief" on other switch L3S2</t>
+  </si>
+  <si>
+    <t>Active op L3S2</t>
+  </si>
+  <si>
+    <t>Ping 100% reply, dan 0% reply, terug hernomen naar 100% reply</t>
+  </si>
+  <si>
+    <t>Tracert PC1-BRU to default gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route langs de active fysieke default gateway </t>
   </si>
 </sst>
 </file>
@@ -718,16 +730,13 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,18 +757,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,7 +772,22 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,9 +798,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Acceptance_Cert_2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,91 +1106,91 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="52.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
@@ -1199,7 +1211,7 @@
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
@@ -1220,7 +1232,7 @@
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
@@ -1241,7 +1253,7 @@
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1264,7 +1276,7 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
@@ -1281,7 +1293,7 @@
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="4" t="s">
         <v>111</v>
       </c>
@@ -1302,7 +1314,7 @@
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
@@ -1317,7 +1329,7 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="4"/>
@@ -1334,7 +1346,7 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -1349,7 +1361,7 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4" t="s">
         <v>99</v>
       </c>
@@ -1370,7 +1382,7 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4" t="s">
         <v>100</v>
       </c>
@@ -1391,7 +1403,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
@@ -1406,7 +1418,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
@@ -1421,7 +1433,7 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1442,7 +1454,7 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="39" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1465,7 +1477,7 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
@@ -1480,7 +1492,7 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
@@ -1499,7 +1511,7 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="4" t="s">
         <v>106</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
@@ -1533,7 +1545,7 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="4" t="s">
         <v>108</v>
       </c>
@@ -1554,7 +1566,7 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="4" t="s">
         <v>109</v>
       </c>
@@ -1572,28 +1584,28 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="13" t="s">
@@ -1683,28 +1695,28 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="13" t="s">
@@ -1782,28 +1794,28 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="13" t="s">
@@ -1881,34 +1893,34 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
@@ -1923,7 +1935,7 @@
       <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -1938,7 +1950,7 @@
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
@@ -1953,7 +1965,7 @@
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3" t="s">
@@ -1968,7 +1980,7 @@
       <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3" t="s">
@@ -1983,7 +1995,7 @@
       <c r="A54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
@@ -1998,7 +2010,7 @@
       <c r="A55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3" t="s">
@@ -2190,34 +2202,34 @@
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="31"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
@@ -2232,7 +2244,7 @@
       <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
@@ -2322,7 +2334,7 @@
       <c r="A77" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="36"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
@@ -2337,7 +2349,7 @@
       <c r="A78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="38"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
@@ -2352,7 +2364,7 @@
       <c r="A79" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
@@ -2499,28 +2511,28 @@
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="28"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="29"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="10">
@@ -2569,21 +2581,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A47:I48"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="A33:I34"/>
-    <mergeCell ref="A40:I41"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A89:I90"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B49:B55"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B84:B88"/>
     <mergeCell ref="B80:B81"/>
@@ -2600,6 +2597,21 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A33:I34"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A89:I90"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B49:B55"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
@@ -2615,85 +2627,85 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="52.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5703125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="13" t="s">
@@ -2720,7 +2732,7 @@
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2764,10 +2776,10 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>0</v>
@@ -2782,8 +2794,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>0</v>
       </c>
@@ -2797,8 +2813,12 @@
         <v>13</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>0</v>
       </c>
@@ -2826,14 +2846,14 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>0</v>
@@ -2847,7 +2867,7 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -2862,7 +2882,7 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
@@ -2877,7 +2897,7 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
@@ -2892,7 +2912,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
@@ -2907,7 +2927,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
@@ -2922,7 +2942,7 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
@@ -2937,14 +2957,14 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>131</v>
+      <c r="B19" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>0</v>
@@ -2958,12 +2978,12 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>0</v>
@@ -2977,12 +2997,12 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>0</v>
@@ -2996,12 +3016,12 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>0</v>
@@ -3015,9 +3035,13 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3054,7 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3" t="s">
@@ -3045,7 +3069,7 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3" t="s">
@@ -3057,41 +3081,41 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>0</v>
@@ -3106,7 +3130,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>114</v>
@@ -3166,28 +3190,28 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="13" t="s">
@@ -3265,28 +3289,28 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="13" t="s">
@@ -3364,34 +3388,34 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
@@ -3406,7 +3430,7 @@
       <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -3421,7 +3445,7 @@
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
@@ -3436,7 +3460,7 @@
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3" t="s">
@@ -3451,7 +3475,7 @@
       <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3" t="s">
@@ -3466,7 +3490,7 @@
       <c r="A54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
@@ -3481,7 +3505,7 @@
       <c r="A55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3" t="s">
@@ -3673,34 +3697,34 @@
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="31"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
@@ -3715,7 +3739,7 @@
       <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
@@ -3805,7 +3829,7 @@
       <c r="A77" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="36"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
@@ -3820,7 +3844,7 @@
       <c r="A78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="38"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
@@ -3835,7 +3859,7 @@
       <c r="A79" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
@@ -3982,28 +4006,28 @@
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="28"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="29"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="10">
@@ -4052,6 +4076,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A33:I34"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B75:B76"/>
@@ -4068,20 +4106,6 @@
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B19:B25"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="A33:I34"/>
-    <mergeCell ref="A40:I41"/>
-    <mergeCell ref="A47:I48"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
@@ -4092,6 +4116,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FBC445AECEC6C44AC6D043F7E24ABC5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce1db7bd6ce67f5356797b83d108a26c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4205,12 +4235,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4221,6 +4245,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0BB605-2FDD-4C25-ACB6-63D3C1364534}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEEFAD0-BFA4-433F-A51E-6B605D7C9FEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4236,21 +4275,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0BB605-2FDD-4C25-ACB6-63D3C1364534}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E4E5FE-D3FE-4129-B6D2-82E023BC4B50}">
   <ds:schemaRefs>

--- a/UserAcceptance-Groep02.xlsx
+++ b/UserAcceptance-Groep02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yense\OneDrive\Documenten\CNS CONFIGS\CaSN_Groepswerk_Groep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639771C-87EF-4B20-9769-492BEDA2F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6968163-131C-44AA-A0B5-0F487C657311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,10 +733,16 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,6 +763,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,29 +790,14 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1104,9 +1107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999"/>
@@ -1123,74 +1126,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
@@ -1211,7 +1214,7 @@
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
@@ -1232,7 +1235,7 @@
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1276,7 +1279,7 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
@@ -1293,7 +1296,7 @@
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4" t="s">
         <v>111</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
@@ -1329,7 +1332,7 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="4"/>
@@ -1346,7 +1349,7 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -1361,7 +1364,7 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>99</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>100</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
@@ -1418,7 +1421,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
@@ -1433,7 +1436,7 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1477,7 +1480,7 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
@@ -1492,7 +1495,7 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="4" t="s">
         <v>106</v>
       </c>
@@ -1530,7 +1533,7 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
@@ -1545,7 +1548,7 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="4" t="s">
         <v>108</v>
       </c>
@@ -1566,7 +1569,7 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="4" t="s">
         <v>109</v>
       </c>
@@ -1584,28 +1587,28 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="13" t="s">
@@ -1695,28 +1698,28 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="13" t="s">
@@ -1794,28 +1797,28 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="13" t="s">
@@ -1893,34 +1896,34 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
@@ -1935,7 +1938,7 @@
       <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="35"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -1950,7 +1953,7 @@
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="35"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
@@ -1965,7 +1968,7 @@
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3" t="s">
@@ -1980,7 +1983,7 @@
       <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3" t="s">
@@ -1995,7 +1998,7 @@
       <c r="A54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
@@ -2010,7 +2013,7 @@
       <c r="A55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="35"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3" t="s">
@@ -2025,7 +2028,7 @@
       <c r="A56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="3" t="s">
@@ -2040,7 +2043,7 @@
       <c r="A57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
@@ -2055,7 +2058,7 @@
       <c r="A58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="3" t="s">
@@ -2070,7 +2073,7 @@
       <c r="A59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="3" t="s">
@@ -2085,7 +2088,7 @@
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="3" t="s">
@@ -2100,7 +2103,7 @@
       <c r="A61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3" t="s">
@@ -2115,7 +2118,7 @@
       <c r="A62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="3" t="s">
@@ -2130,7 +2133,7 @@
       <c r="A63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="3" t="s">
@@ -2145,7 +2148,7 @@
       <c r="A64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3" t="s">
@@ -2160,7 +2163,7 @@
       <c r="A65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="3" t="s">
@@ -2175,7 +2178,7 @@
       <c r="A66" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="3" t="s">
@@ -2190,7 +2193,7 @@
       <c r="A67" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="3" t="s">
@@ -2202,34 +2205,34 @@
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="31"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
@@ -2244,7 +2247,7 @@
       <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
@@ -2259,7 +2262,7 @@
       <c r="A72" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="3" t="s">
@@ -2274,7 +2277,7 @@
       <c r="A73" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="3" t="s">
@@ -2289,7 +2292,7 @@
       <c r="A74" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="3" t="s">
@@ -2304,7 +2307,7 @@
       <c r="A75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="3" t="s">
@@ -2319,7 +2322,7 @@
       <c r="A76" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
@@ -2334,7 +2337,7 @@
       <c r="A77" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="31"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
@@ -2349,7 +2352,7 @@
       <c r="A78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="33"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
@@ -2364,7 +2367,7 @@
       <c r="A79" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="34"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
@@ -2379,7 +2382,7 @@
       <c r="A80" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="3" t="s">
@@ -2394,7 +2397,7 @@
       <c r="A81" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="3" t="s">
@@ -2409,7 +2412,7 @@
       <c r="A82" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="3" t="s">
@@ -2424,7 +2427,7 @@
       <c r="A83" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="3" t="s">
@@ -2439,7 +2442,7 @@
       <c r="A84" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
@@ -2454,7 +2457,7 @@
       <c r="A85" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
@@ -2469,7 +2472,7 @@
       <c r="A86" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
@@ -2484,7 +2487,7 @@
       <c r="A87" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
@@ -2499,7 +2502,7 @@
       <c r="A88" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="3" t="s">
@@ -2511,34 +2514,34 @@
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="10">
         <v>7.1</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="3" t="s">
@@ -2553,7 +2556,7 @@
       <c r="A92" s="10">
         <v>7.2</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="3" t="s">
@@ -2568,7 +2571,7 @@
       <c r="A93" s="10">
         <v>7.3</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="3" t="s">
@@ -2581,6 +2584,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A33:I34"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A89:I90"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B49:B55"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B84:B88"/>
     <mergeCell ref="B80:B81"/>
@@ -2597,21 +2615,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A47:I48"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="A33:I34"/>
-    <mergeCell ref="A40:I41"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A89:I90"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B49:B55"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
@@ -2625,9 +2628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94B9E72-32E0-4EE3-9BEF-688339C6FA8D}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999"/>
@@ -2644,68 +2647,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="13" t="s">
@@ -2720,10 +2723,12 @@
       <c r="D5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2741,10 +2746,12 @@
       <c r="D6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
@@ -2762,10 +2769,12 @@
       <c r="D7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
@@ -2781,10 +2790,12 @@
       <c r="D8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2800,10 +2811,12 @@
       <c r="D9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
@@ -2819,10 +2832,12 @@
       <c r="D10" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="E10" s="3">
+        <v>45592</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
@@ -2846,7 +2861,7 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2855,10 +2870,12 @@
       <c r="D12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="E12" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -2867,7 +2884,7 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -2882,7 +2899,7 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
@@ -2897,7 +2914,7 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
@@ -2912,7 +2929,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
@@ -2927,7 +2944,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
@@ -2942,7 +2959,7 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
@@ -2957,7 +2974,7 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2966,10 +2983,12 @@
       <c r="D19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="E19" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -2978,17 +2997,19 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="E20" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2997,17 +3018,19 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="E21" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -3016,17 +3039,19 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="E22" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -3035,17 +3060,19 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="E23" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -3054,7 +3081,7 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3" t="s">
@@ -3069,7 +3096,7 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3" t="s">
@@ -3081,28 +3108,28 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
       <c r="A28" s="13" t="s">
@@ -3117,10 +3144,12 @@
       <c r="D28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="E28" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
@@ -3136,10 +3165,12 @@
         <v>114</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -3190,28 +3221,28 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
       <c r="A35" s="13" t="s">
@@ -3289,28 +3320,28 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="13" t="s">
@@ -3388,34 +3419,34 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
@@ -3430,7 +3461,7 @@
       <c r="A50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="35"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3" t="s">
@@ -3445,7 +3476,7 @@
       <c r="A51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="35"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
@@ -3460,7 +3491,7 @@
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3" t="s">
@@ -3475,7 +3506,7 @@
       <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3" t="s">
@@ -3490,7 +3521,7 @@
       <c r="A54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
@@ -3505,7 +3536,7 @@
       <c r="A55" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="35"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3" t="s">
@@ -3520,7 +3551,7 @@
       <c r="A56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="3" t="s">
@@ -3535,7 +3566,7 @@
       <c r="A57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
@@ -3550,7 +3581,7 @@
       <c r="A58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="3" t="s">
@@ -3565,7 +3596,7 @@
       <c r="A59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="3" t="s">
@@ -3580,7 +3611,7 @@
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="3" t="s">
@@ -3595,7 +3626,7 @@
       <c r="A61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3" t="s">
@@ -3610,7 +3641,7 @@
       <c r="A62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="3" t="s">
@@ -3625,7 +3656,7 @@
       <c r="A63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="3" t="s">
@@ -3640,7 +3671,7 @@
       <c r="A64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3" t="s">
@@ -3655,7 +3686,7 @@
       <c r="A65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="3" t="s">
@@ -3670,7 +3701,7 @@
       <c r="A66" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="3" t="s">
@@ -3685,7 +3716,7 @@
       <c r="A67" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="3" t="s">
@@ -3697,34 +3728,34 @@
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="31"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3" t="s">
@@ -3739,7 +3770,7 @@
       <c r="A71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3" t="s">
@@ -3754,7 +3785,7 @@
       <c r="A72" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="3" t="s">
@@ -3769,7 +3800,7 @@
       <c r="A73" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="3" t="s">
@@ -3784,7 +3815,7 @@
       <c r="A74" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="3" t="s">
@@ -3799,7 +3830,7 @@
       <c r="A75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="3" t="s">
@@ -3814,7 +3845,7 @@
       <c r="A76" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
@@ -3829,7 +3860,7 @@
       <c r="A77" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="31"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
@@ -3844,7 +3875,7 @@
       <c r="A78" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B78" s="33"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3" t="s">
@@ -3859,7 +3890,7 @@
       <c r="A79" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="34"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
@@ -3874,7 +3905,7 @@
       <c r="A80" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="3" t="s">
@@ -3889,7 +3920,7 @@
       <c r="A81" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="3" t="s">
@@ -3904,7 +3935,7 @@
       <c r="A82" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="3" t="s">
@@ -3919,7 +3950,7 @@
       <c r="A83" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="3" t="s">
@@ -3934,7 +3965,7 @@
       <c r="A84" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="3" t="s">
@@ -3949,7 +3980,7 @@
       <c r="A85" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
@@ -3964,7 +3995,7 @@
       <c r="A86" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
@@ -3979,7 +4010,7 @@
       <c r="A87" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
@@ -3994,7 +4025,7 @@
       <c r="A88" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="3" t="s">
@@ -4006,34 +4037,34 @@
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="10">
         <v>7.1</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="3" t="s">
@@ -4048,7 +4079,7 @@
       <c r="A92" s="10">
         <v>7.2</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="3" t="s">
@@ -4063,7 +4094,7 @@
       <c r="A93" s="10">
         <v>7.3</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="3" t="s">
@@ -4076,20 +4107,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="A33:I34"/>
-    <mergeCell ref="A40:I41"/>
-    <mergeCell ref="A47:I48"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B75:B76"/>
@@ -4106,6 +4123,20 @@
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A33:I34"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.56000000000000005" right="0.46" top="0.53" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="100" orientation="landscape" r:id="rId1"/>
@@ -4116,12 +4147,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FBC445AECEC6C44AC6D043F7E24ABC5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce1db7bd6ce67f5356797b83d108a26c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4235,6 +4260,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4245,21 +4276,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0BB605-2FDD-4C25-ACB6-63D3C1364534}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEEFAD0-BFA4-433F-A51E-6B605D7C9FEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4275,6 +4291,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0BB605-2FDD-4C25-ACB6-63D3C1364534}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E4E5FE-D3FE-4129-B6D2-82E023BC4B50}">
   <ds:schemaRefs>
